--- a/excel/player_personal_awards.xlsx
+++ b/excel/player_personal_awards.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>doraemon</t>
+  </si>
+  <si>
+    <t>opm9GBAFCB2025</t>
+  </si>
+  <si>
+    <t>opm_9</t>
+  </si>
+  <si>
+    <t>AFC_B</t>
+  </si>
+  <si>
+    <t>opm</t>
+  </si>
+  <si>
+    <t>opm10PMAFCB2025</t>
+  </si>
+  <si>
+    <t>opm_10</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1285,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.3672" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1953" style="1" customWidth="1"/>
     <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1377,7 +1395,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="32.05" customHeight="1">
+    <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="7">
         <v>19</v>
       </c>
@@ -1399,21 +1417,45 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2025</v>
+      </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2025</v>
+      </c>
       <c r="G8" s="9"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
